--- a/文档/团队打分表.xlsx
+++ b/文档/团队打分表.xlsx
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要做骨骼长度标准化、动作剪切、对应帧匹配等工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与讨论并提出意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>该同学积极参与组会讨论，是我们小组的用户体验分析设计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要做骨骼长度标准化、动作剪切、对应帧匹配等工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,16 +517,16 @@
     <row r="3" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,16 +549,16 @@
     <row r="5" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,16 +581,16 @@
     <row r="7" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
     <row r="9" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -645,16 +645,16 @@
     <row r="11" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,16 +677,16 @@
     <row r="13" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
